--- a/CDE_ID_detective_revamp/ValidatedCDEuse/DD_HDP01011_Matthias.xlsx
+++ b/CDE_ID_detective_revamp/ValidatedCDEuse/DD_HDP01011_Matthias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\ValidatedCDEuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD6D2A1-D1EF-48EC-B62B-F232C52F2956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D294C111-FB18-41FC-BE6B-4C927AD7C23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28740" yWindow="8355" windowWidth="29085" windowHeight="17130" xr2:uid="{EA7500F9-1517-4423-A964-1FC78B62850E}"/>
+    <workbookView xWindow="-20655" yWindow="6465" windowWidth="20310" windowHeight="15390" activeTab="1" xr2:uid="{EA7500F9-1517-4423-A964-1FC78B62850E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -15556,7 +15556,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0BC9C4A-7C91-41EA-ACF8-D9C03F5FD449}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0BC9C4A-7C91-41EA-ACF8-D9C03F5FD449}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -16293,9 +16293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D680DE74-1A3B-4878-B107-9C43948F4879}">
   <dimension ref="A1:H288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23809,9 +23809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D7333-2AA7-4B5D-AD35-09C238009587}">
   <dimension ref="A1:T304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D264" sqref="D264"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40343,6 +40343,7 @@
   </sheetData>
   <autoFilter ref="A1:T304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CDE_ID_detective_revamp/ValidatedCDEuse/DD_HDP01011_Matthias.xlsx
+++ b/CDE_ID_detective_revamp/ValidatedCDEuse/DD_HDP01011_Matthias.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\ValidatedCDEuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D294C111-FB18-41FC-BE6B-4C927AD7C23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F028D7-3B22-460D-A163-135F2889DB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20655" yWindow="6465" windowWidth="20310" windowHeight="15390" activeTab="1" xr2:uid="{EA7500F9-1517-4423-A964-1FC78B62850E}"/>
+    <workbookView xWindow="-32265" yWindow="7380" windowWidth="26640" windowHeight="20175" activeTab="2" xr2:uid="{EA7500F9-1517-4423-A964-1FC78B62850E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -8325,7 +8325,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>HEAL Core CRFs with variables</t>
+    <t>Manually Validated HEAL Core CRFs with variables</t>
   </si>
 </sst>
 </file>
@@ -8463,7 +8463,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Liezl Mae Fos" refreshedDate="45679.582645833332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="304" xr:uid="{813DE426-53CF-4115-87E9-D295ABC0B20E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Liezl Mae Fos" refreshedDate="45691.929752083335" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="304" xr:uid="{813DE426-53CF-4115-87E9-D295ABC0B20E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T1048576" sheet="EnhancedDD"/>
   </cacheSource>
@@ -16294,7 +16294,7 @@
   <dimension ref="A1:H288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -23809,7 +23809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D7333-2AA7-4B5D-AD35-09C238009587}">
   <dimension ref="A1:T304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
@@ -40351,8 +40351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF96258-53AE-4F64-8952-45331CBEA3FC}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
